--- a/GenerateJson/readData/pdp数据.xlsx
+++ b/GenerateJson/readData/pdp数据.xlsx
@@ -33,59 +33,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>poster</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/02.jpg?w=750&amp;h=1310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/03.jpg?w=750&amp;h=1348</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/04.jpg?w=750&amp;h=1180</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/05.jpg?w=750&amp;h=1175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/06.jpg?w=750&amp;h=1833</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/07.jpg?w=750&amp;h=678</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/08.jpg?w=750&amp;h=1067</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/11.jpg?w=750&amp;h=537</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/01.jpg?w=750&amp;h=1503</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y0996176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>navigate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>poster</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/02.jpg?w=750&amp;h=1310</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/03.jpg?w=750&amp;h=1348</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/04.jpg?w=750&amp;h=1180</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/05.jpg?w=750&amp;h=1175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/06.jpg?w=750&amp;h=1833</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/07.jpg?w=750&amp;h=678</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/08.jpg?w=750&amp;h=1067</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/11.jpg?w=750&amp;h=537</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.dior.cn/beauty/zh_cn/store/media/wysiwyg/PDP/Y0996176/01.jpg?w=750&amp;h=1503</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y0996176</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pages/goodsDetails/goodsDetails?spu=Y1996003,pages/goodsDetails/goodsDetails?spu=Y0996166,pages/goodsDetails/goodsDetails?spu=Y0657510,pages/goodsDetails/goodsDetails?spu=Y0670530</t>
+    <t>/pages/goodsDetails/goodsDetails?spu=Y1996003,/pages/goodsDetails/goodsDetails?spu=Y0996166,/pages/goodsDetails/goodsDetails?spu=Y0657510,/pages/goodsDetails/goodsDetails?spu=Y0670530</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -445,7 +445,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -454,21 +454,21 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -478,7 +478,7 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -488,7 +488,7 @@
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -497,31 +497,31 @@
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -530,7 +530,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
